--- a/LGC_Motiv_results/nutrition/Gly_scoring.xlsx
+++ b/LGC_Motiv_results/nutrition/Gly_scoring.xlsx
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1845.90535</v>
+        <v>1955.90535</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4363.740575</v>
+        <v>4702.740575</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1647.22231</v>
+        <v>2461.72231</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>8584.056655000002</v>
+        <v>8923.056655000002</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>913.564275</v>
+        <v>1032.564275</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3037.730235</v>
+        <v>3660.730235</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3351.37783</v>
+        <v>3690.37783</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -702,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3743.223255</v>
+        <v>4199.223255</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3008.089935</v>
+        <v>3356.089935</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -718,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5065.090254999999</v>
+        <v>5120.090254999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2923.792315</v>
+        <v>2978.792315</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1516.520715</v>
+        <v>1571.520715</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4683.41985</v>
+        <v>4738.41985</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>4252.31124</v>
+        <v>4371.31124</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -758,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>6020.310564999999</v>
+        <v>6130.310564999999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>14496.143915</v>
+        <v>14606.143915</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>8542.052825000001</v>
+        <v>8597.052825000001</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -790,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3999.994174999999</v>
+        <v>4109.994175</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -798,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>4045.427</v>
+        <v>4100.427000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -806,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>15531.221615</v>
+        <v>15641.221615</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -822,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>8400.24704</v>
+        <v>8455.24704</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2670.934784999999</v>
+        <v>2734.934784999999</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>6516.123399999999</v>
+        <v>7998.123400000001</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -854,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2521.492334999999</v>
+        <v>3180.492334999999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>3908.714175</v>
+        <v>4036.714175</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2982.636735</v>
+        <v>3037.636735</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1557.79525</v>
+        <v>1621.79525</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -886,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2465.1588</v>
+        <v>2529.1588</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1821.26365</v>
+        <v>1931.26365</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -902,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2001.871265</v>
+        <v>2120.871264999999</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -910,7 +910,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>5856.484535</v>
+        <v>5911.484535</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10926.899275</v>
+        <v>12869.899275</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -926,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>3445.609835</v>
+        <v>3554.609835</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2716.878525000001</v>
+        <v>2770.878525000001</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>6195.941775</v>
+        <v>6323.941775</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2971.933775</v>
+        <v>3090.933775</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -958,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>6322.687674999999</v>
+        <v>7045.187674999999</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -966,7 +966,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1362.605835</v>
+        <v>1371.605835</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -974,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2598.413765</v>
+        <v>2717.413765</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -982,7 +982,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>16598.84510500001</v>
+        <v>16653.84510500001</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -990,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>5623.221375</v>
+        <v>5678.221375</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1571.46971</v>
+        <v>1635.46971</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>2418.819455</v>
+        <v>2766.819455</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2360.24741</v>
+        <v>2424.24741</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>4051.28836</v>
+        <v>4170.28836</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>5545.805775000001</v>
+        <v>6204.805775000001</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>2521.544914999999</v>
+        <v>2576.544914999999</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3016.502135</v>
+        <v>3144.502135</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>13527.746365</v>
+        <v>15046.746365</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>2800.89254</v>
+        <v>3130.89254</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1327.07081</v>
+        <v>1675.07081</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>7817.67274</v>
+        <v>8165.67274</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>6991.248474999999</v>
+        <v>7046.248474999999</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1377.153375</v>
+        <v>1432.153375</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>3334.181189999999</v>
+        <v>3453.181189999999</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>9326.602875</v>
+        <v>9436.602875</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>3417.673865</v>
+        <v>3545.673865</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>2739.113085</v>
+        <v>3509.113085</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>5981.63979</v>
+        <v>6311.63979</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>2189.22124</v>
+        <v>2244.22124</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1980.699065</v>
+        <v>2310.699064999999</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>3977.83134</v>
+        <v>4032.83134</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>8505.054459999999</v>
+        <v>8560.054459999999</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>5171.599450000001</v>
+        <v>5244.599450000001</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>2547.834825</v>
+        <v>2675.834825</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>5647.481984999999</v>
+        <v>5757.481984999999</v>
       </c>
     </row>
   </sheetData>
